--- a/SPEKTRAL_ANALİZ/EXCELLER/bozyazı_tudes_ssh_model.xlsx
+++ b/SPEKTRAL_ANALİZ/EXCELLER/bozyazı_tudes_ssh_model.xlsx
@@ -465,7 +465,7 @@
         <v>0.06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1672896199866359</v>
+        <v>0.1610338305486331</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         <v>39814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01544634856630824</v>
+        <v>0.01928641417023409</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1594183078657753</v>
+        <v>0.1426820261153134</v>
       </c>
     </row>
     <row r="4">
@@ -490,10 +490,10 @@
         <v>39845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1711785552536232</v>
+        <v>0.1690847574990141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1368658605638286</v>
+        <v>0.1088505385976593</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         <v>0.07703976254480287</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1037401958197374</v>
+        <v>0.09069996191671945</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>0.06875360809178745</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09176340430171592</v>
+        <v>0.1180753088255206</v>
       </c>
     </row>
     <row r="7">
@@ -535,7 +535,7 @@
         <v>0.06906529706790124</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128683501398376</v>
+        <v>0.1863525297208952</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,9 @@
       <c r="B8" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>0.274745592948718</v>
+      </c>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -556,10 +558,10 @@
         <v>39995</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2747804487179487</v>
+        <v>0.2468487903225806</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2798246498202057</v>
+        <v>0.2547914167731505</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +572,10 @@
         <v>40026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2468487903225806</v>
+        <v>0.2300638888888889</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3051936368346623</v>
+        <v>0.2797223376091541</v>
       </c>
     </row>
     <row r="11">
@@ -584,10 +586,10 @@
         <v>40057</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2300638888888889</v>
+        <v>0.1996868279569892</v>
       </c>
       <c r="D11" t="n">
-        <v>0.27343265020662</v>
+        <v>0.2514040121633809</v>
       </c>
     </row>
     <row r="12">
@@ -598,10 +600,10 @@
         <v>40087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1996868279569892</v>
+        <v>0.2218871527777778</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2158981162051694</v>
+        <v>0.199519787031977</v>
       </c>
     </row>
     <row r="13">
@@ -612,10 +614,10 @@
         <v>40118</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2218871527777778</v>
+        <v>0.2982423989570115</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1725452105263423</v>
+        <v>0.1629535788280266</v>
       </c>
     </row>
     <row r="14">
@@ -626,10 +628,10 @@
         <v>40148</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3030440188172043</v>
+        <v>0.2413788865019502</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1564408133776643</v>
+        <v>0.1542144260036138</v>
       </c>
     </row>
     <row r="15">
@@ -640,10 +642,10 @@
         <v>40179</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2482185264283792</v>
+        <v>0.2085461221296819</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1485695012568037</v>
+        <v>0.1531985958712369</v>
       </c>
     </row>
     <row r="16">
@@ -654,10 +656,10 @@
         <v>40210</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2097375992063492</v>
+        <v>0.1228944892473118</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1260170539548571</v>
+        <v>0.1348467914379171</v>
       </c>
     </row>
     <row r="17">
@@ -668,10 +670,10 @@
         <v>40238</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1229450044802868</v>
+        <v>0.0662494212962963</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09289138921076587</v>
+        <v>0.1010153039202632</v>
       </c>
     </row>
     <row r="18">
@@ -682,10 +684,10 @@
         <v>40269</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0662494212962963</v>
+        <v>0.1361720430107527</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08091459769274428</v>
+        <v>0.08286472723932323</v>
       </c>
     </row>
     <row r="19">
@@ -696,10 +698,10 @@
         <v>40299</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1361720430107527</v>
+        <v>0.2430108796296296</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1178346947894044</v>
+        <v>0.1102400741481243</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +712,10 @@
         <v>40330</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2430108796296296</v>
+        <v>0.2569717741935484</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1952094744405586</v>
+        <v>0.178517295043499</v>
       </c>
     </row>
     <row r="21">
@@ -723,11 +725,9 @@
       <c r="B21" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.2569717741935484</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>0.268975843211234</v>
+        <v>0.2469561820957543</v>
       </c>
     </row>
     <row r="22">
@@ -737,12 +737,8 @@
       <c r="B22" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.3110106406810035</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.2943448302256906</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -752,11 +748,9 @@
         <v>40422</v>
       </c>
       <c r="C23" t="n">
-        <v>0.304016087962963</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.2625838435976484</v>
-      </c>
+        <v>0.2268082437275986</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -766,10 +760,10 @@
         <v>40452</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2268082437275986</v>
+        <v>0.231096875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2050493095961979</v>
+        <v>0.1916845523545808</v>
       </c>
     </row>
     <row r="25">
@@ -779,11 +773,9 @@
       <c r="B25" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.231096875</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>0.1616964039173708</v>
+        <v>0.1551183441506304</v>
       </c>
     </row>
     <row r="26">
@@ -794,11 +786,9 @@
         <v>40513</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3158785842293906</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.1455920067686927</v>
-      </c>
+        <v>0.14956395609319</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -808,10 +798,10 @@
         <v>40544</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1495916218637993</v>
+        <v>0.1297531271566598</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1377206946478321</v>
+        <v>0.1453633611938407</v>
       </c>
     </row>
     <row r="28">
@@ -822,10 +812,10 @@
         <v>40575</v>
       </c>
       <c r="C28" t="n">
-        <v>0.129998290847136</v>
+        <v>0.05003685035842294</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1151682473458854</v>
+        <v>0.1270115567605209</v>
       </c>
     </row>
     <row r="29">
@@ -836,10 +826,10 @@
         <v>40603</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05003685035842294</v>
+        <v>0.06717931214317083</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08204258260179421</v>
+        <v>0.09318006924286693</v>
       </c>
     </row>
     <row r="30">
@@ -850,10 +840,10 @@
         <v>40634</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06717931214317083</v>
+        <v>0.1366797715053763</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07006579108377264</v>
+        <v>0.07502949256192704</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +854,10 @@
         <v>40664</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1366797715053763</v>
+        <v>0.2123534722222222</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1069858881804327</v>
+        <v>0.1024048394707281</v>
       </c>
     </row>
     <row r="32">
@@ -878,10 +868,10 @@
         <v>40695</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2123534722222222</v>
+        <v>0.2976204856241235</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1843606678315866</v>
+        <v>0.1706820603661028</v>
       </c>
     </row>
     <row r="33">
@@ -891,11 +881,9 @@
       <c r="B33" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.2989659498207885</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>0.2581270366022624</v>
+        <v>0.2391209474183579</v>
       </c>
     </row>
     <row r="34">
@@ -905,12 +893,8 @@
       <c r="B34" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.3183387096774193</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.2834960236167191</v>
-      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -920,11 +904,9 @@
         <v>40787</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3056947916666666</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.2517350369886767</v>
-      </c>
+        <v>0.1914617415514593</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -934,10 +916,10 @@
         <v>40817</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1914617415514593</v>
+        <v>0.106215625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1942005029872262</v>
+        <v>0.1838493176771845</v>
       </c>
     </row>
     <row r="37">
@@ -948,10 +930,10 @@
         <v>40848</v>
       </c>
       <c r="C37" t="n">
-        <v>0.106215625</v>
+        <v>0.08665961021505376</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1508475973083991</v>
+        <v>0.1472831094732341</v>
       </c>
     </row>
     <row r="38">
@@ -962,10 +944,10 @@
         <v>40878</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08665961021505376</v>
+        <v>0.1556198476702509</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1347432001597211</v>
+        <v>0.1385439566488214</v>
       </c>
     </row>
     <row r="39">
@@ -976,10 +958,10 @@
         <v>40909</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1556198476702509</v>
+        <v>0.05246156609195402</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1268718880388605</v>
+        <v>0.1375281265164444</v>
       </c>
     </row>
     <row r="40">
@@ -990,10 +972,10 @@
         <v>40940</v>
       </c>
       <c r="C40" t="n">
-        <v>0.05246156609195402</v>
+        <v>0.003225902457757297</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1043194407369139</v>
+        <v>0.1191763220831248</v>
       </c>
     </row>
     <row r="41">
@@ -1004,10 +986,10 @@
         <v>40969</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003225902457757297</v>
+        <v>0.1083010416666667</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07119377599282273</v>
+        <v>0.08534483456547085</v>
       </c>
     </row>
     <row r="42">
@@ -1018,10 +1000,10 @@
         <v>41000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1083010416666667</v>
+        <v>0.1170760528673835</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05921698447480109</v>
+        <v>0.06719425788453082</v>
       </c>
     </row>
     <row r="43">
@@ -1032,10 +1014,10 @@
         <v>41030</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1170760528673835</v>
+        <v>0.1127496527777778</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09613708157146064</v>
+        <v>0.09456960479333204</v>
       </c>
     </row>
     <row r="44">
@@ -1046,10 +1028,10 @@
         <v>41061</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1127496527777778</v>
+        <v>0.2643611111111111</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1735118612226152</v>
+        <v>0.162846825688706</v>
       </c>
     </row>
     <row r="45">
@@ -1060,10 +1042,10 @@
         <v>41091</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2649340277777778</v>
+        <v>0.2837449565784068</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2472782299932907</v>
+        <v>0.2312857127409618</v>
       </c>
     </row>
     <row r="46">
@@ -1074,10 +1056,10 @@
         <v>41122</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2869911514336917</v>
+        <v>0.2193085524140211</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2726472170077474</v>
+        <v>0.2562166335769654</v>
       </c>
     </row>
     <row r="47">
@@ -1088,10 +1070,10 @@
         <v>41153</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2193085524140211</v>
+        <v>0.2369769129572119</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2408862303797051</v>
+        <v>0.2278983081311924</v>
       </c>
     </row>
     <row r="48">
@@ -1102,10 +1084,10 @@
         <v>41183</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2369769129572119</v>
+        <v>0.1304996527777778</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1833516963782549</v>
+        <v>0.1760140829997883</v>
       </c>
     </row>
     <row r="49">
@@ -1116,10 +1098,10 @@
         <v>41214</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1304996527777778</v>
+        <v>0.195495855734767</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1399987906994275</v>
+        <v>0.1394478747958381</v>
       </c>
     </row>
     <row r="50">
@@ -1130,10 +1112,10 @@
         <v>41244</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1956422491039427</v>
+        <v>0.1440097446236559</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1238943935507495</v>
+        <v>0.1307087219714252</v>
       </c>
     </row>
     <row r="51">
@@ -1144,10 +1126,10 @@
         <v>41275</v>
       </c>
       <c r="C51" t="n">
-        <v>0.144292226702509</v>
+        <v>0.09165223861283645</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1160230814298889</v>
+        <v>0.1296928918390483</v>
       </c>
     </row>
     <row r="52">
@@ -1158,10 +1140,10 @@
         <v>41306</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09165223861283645</v>
+        <v>0.109948919481835</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09347063412794215</v>
+        <v>0.1113410874057286</v>
       </c>
     </row>
     <row r="53">
@@ -1172,10 +1154,10 @@
         <v>41334</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1102994045215732</v>
+        <v>0.07423923611111111</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06034496938385114</v>
+        <v>0.07750959988807445</v>
       </c>
     </row>
     <row r="54">
@@ -1186,10 +1168,10 @@
         <v>41365</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07423923611111111</v>
+        <v>0.1018877688172043</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04836817786582946</v>
+        <v>0.0593590232071346</v>
       </c>
     </row>
     <row r="55">
@@ -1200,10 +1182,10 @@
         <v>41395</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1018877688172043</v>
+        <v>0.1611945833333333</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08528827496248946</v>
+        <v>0.08673437011593581</v>
       </c>
     </row>
     <row r="56">
@@ -1214,10 +1196,10 @@
         <v>41426</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1611945833333333</v>
+        <v>0.244727979684957</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1626630546136436</v>
+        <v>0.1550115910113103</v>
       </c>
     </row>
     <row r="57">
@@ -1228,10 +1210,10 @@
         <v>41456</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2468429193899782</v>
+        <v>0.2774152105734767</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2364294233843194</v>
+        <v>0.2234504780635656</v>
       </c>
     </row>
     <row r="58">
@@ -1242,10 +1224,10 @@
         <v>41487</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2774624775985663</v>
+        <v>0.1644134259259259</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2617984103987758</v>
+        <v>0.2483813988995693</v>
       </c>
     </row>
     <row r="59">
@@ -1256,10 +1238,10 @@
         <v>41518</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1644134259259259</v>
+        <v>0.1214134184587814</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2300374237707338</v>
+        <v>0.2200630734537963</v>
       </c>
     </row>
     <row r="60">
@@ -1270,10 +1252,10 @@
         <v>41548</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1215767249103943</v>
+        <v>0.1400880787037037</v>
       </c>
       <c r="D60" t="n">
-        <v>0.172502889769283</v>
+        <v>0.1681788483223924</v>
       </c>
     </row>
     <row r="61">
@@ -1283,11 +1265,9 @@
       <c r="B61" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="C61" t="n">
-        <v>0.1400880787037037</v>
-      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>0.1291499840904559</v>
+        <v>0.1316126401184417</v>
       </c>
     </row>
     <row r="62">
@@ -1298,11 +1278,9 @@
         <v>41609</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.02973337813620072</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.113045586941778</v>
-      </c>
+        <v>0.01227848182283666</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1312,10 +1290,10 @@
         <v>41640</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01156003584229391</v>
+        <v>0.05222899756493506</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1051742748209173</v>
+        <v>0.1218576571616521</v>
       </c>
     </row>
     <row r="64">
@@ -1326,10 +1304,10 @@
         <v>41671</v>
       </c>
       <c r="C64" t="n">
-        <v>0.05122118506493507</v>
+        <v>0.01738150712045356</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08262182751897074</v>
+        <v>0.1035058527283324</v>
       </c>
     </row>
     <row r="65">
@@ -1340,10 +1318,10 @@
         <v>41699</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01266634525479196</v>
+        <v>0.07564583333333334</v>
       </c>
       <c r="D65" t="n">
-        <v>0.04949616277487935</v>
+        <v>0.06967436521067848</v>
       </c>
     </row>
     <row r="66">
@@ -1354,10 +1332,10 @@
         <v>41730</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07564583333333334</v>
+        <v>0.006431115591397849</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03751937125685781</v>
+        <v>0.05152378852973842</v>
       </c>
     </row>
     <row r="67">
@@ -1368,10 +1346,10 @@
         <v>41760</v>
       </c>
       <c r="C67" t="n">
-        <v>0.006431115591397849</v>
+        <v>0.1095704861111111</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07443946835351782</v>
+        <v>0.07889913543853921</v>
       </c>
     </row>
     <row r="68">
@@ -1382,10 +1360,10 @@
         <v>41791</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1095704861111111</v>
+        <v>0.2632791218637993</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1518142480046725</v>
+        <v>0.147176356333914</v>
       </c>
     </row>
     <row r="69">
@@ -1396,10 +1374,10 @@
         <v>41821</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2633322132616487</v>
+        <v>0.270611335125448</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2255806167753474</v>
+        <v>0.2156152433861697</v>
       </c>
     </row>
     <row r="70">
@@ -1410,10 +1388,10 @@
         <v>41852</v>
       </c>
       <c r="C70" t="n">
-        <v>0.271506832437276</v>
+        <v>0.2514564814814815</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2509496037898042</v>
+        <v>0.2405461642221731</v>
       </c>
     </row>
     <row r="71">
@@ -1424,10 +1402,10 @@
         <v>41883</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2517619212962963</v>
+        <v>0.1330036962365591</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2191886171617622</v>
+        <v>0.2122278387763998</v>
       </c>
     </row>
     <row r="72">
@@ -1438,10 +1416,10 @@
         <v>41913</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1330036962365591</v>
+        <v>0.1476586805555556</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1616540831603114</v>
+        <v>0.1603436136449962</v>
       </c>
     </row>
     <row r="73">
@@ -1452,10 +1430,10 @@
         <v>41944</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1476586805555556</v>
+        <v>0.09920037108461897</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1183011774814841</v>
+        <v>0.1237774054410456</v>
       </c>
     </row>
     <row r="74">
@@ -1466,10 +1444,10 @@
         <v>41974</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09893413978494624</v>
+        <v>0.04785336021505376</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1021967803328063</v>
+        <v>0.1150382526166328</v>
       </c>
     </row>
     <row r="75">
@@ -1480,10 +1458,10 @@
         <v>42005</v>
       </c>
       <c r="C75" t="n">
-        <v>0.04785336021505376</v>
+        <v>0.09622205298786181</v>
       </c>
       <c r="D75" t="n">
-        <v>0.09432546821194579</v>
+        <v>0.1140224224842558</v>
       </c>
     </row>
     <row r="76">
@@ -1493,11 +1471,9 @@
       <c r="B76" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="C76" t="n">
-        <v>0.08852418154761905</v>
-      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>0.07177302090999917</v>
+        <v>0.09567061805093643</v>
       </c>
     </row>
     <row r="77">
@@ -1507,12 +1483,8 @@
       <c r="B77" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="C77" t="n">
-        <v>-0.06311827956989248</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.03864735616590775</v>
-      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1522,11 +1494,9 @@
         <v>42095</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.03529398148148148</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.0266705646478862</v>
-      </c>
+        <v>0.05024182347670251</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1536,10 +1506,10 @@
         <v>42125</v>
       </c>
       <c r="C79" t="n">
-        <v>0.05024182347670251</v>
+        <v>0.07636770833333334</v>
       </c>
       <c r="D79" t="n">
-        <v>0.06359066174454617</v>
+        <v>0.071063900761143</v>
       </c>
     </row>
     <row r="80">
@@ -1550,10 +1520,10 @@
         <v>42156</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07636770833333334</v>
+        <v>0.1897872983870968</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1409654413956997</v>
+        <v>0.1393411216565178</v>
       </c>
     </row>
     <row r="81">
@@ -1564,10 +1534,10 @@
         <v>42186</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1897872983870968</v>
+        <v>0.2042194220430107</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2147318101663758</v>
+        <v>0.2077800087087728</v>
       </c>
     </row>
     <row r="82">
@@ -1578,10 +1548,10 @@
         <v>42217</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2042194220430107</v>
+        <v>0.1663797453703704</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2401007971808325</v>
+        <v>0.2327109295447768</v>
       </c>
     </row>
     <row r="83">
@@ -1592,10 +1562,10 @@
         <v>42248</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1663797453703704</v>
+        <v>0.1746590501792115</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2083398105527907</v>
+        <v>0.2043926040990036</v>
       </c>
     </row>
     <row r="84">
@@ -1606,10 +1576,10 @@
         <v>42278</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1749793906810036</v>
+        <v>0.08264328703703704</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1508052765513406</v>
+        <v>0.1525083789676001</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1590,10 @@
         <v>42309</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08264328703703704</v>
+        <v>0.03719376602632213</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1074523708725125</v>
+        <v>0.1159421707636497</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1604,10 @@
         <v>42339</v>
       </c>
       <c r="C86" t="n">
-        <v>0.03719376602632213</v>
+        <v>0.1524858245361556</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09134797372383471</v>
+        <v>0.1072030179392366</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1618,10 @@
         <v>42370</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1524858245361556</v>
+        <v>0.1211149312113424</v>
       </c>
       <c r="D87" t="n">
-        <v>0.083476661602974</v>
+        <v>0.1061871878068596</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1632,10 @@
         <v>42401</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1211149312113424</v>
+        <v>0.1432512485858383</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06092421430102757</v>
+        <v>0.08783538337353984</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1646,10 @@
         <v>42430</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1432512485858383</v>
+        <v>0.08814090268628312</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02779854955693654</v>
+        <v>0.05400389585588609</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1660,10 @@
         <v>42461</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08814090268628312</v>
+        <v>0.0754413569424965</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01582175803891456</v>
+        <v>0.03585331917494598</v>
       </c>
     </row>
     <row r="91">
@@ -1704,10 +1674,10 @@
         <v>42491</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0754413569424965</v>
+        <v>0.1293964120370371</v>
       </c>
       <c r="D91" t="n">
-        <v>0.05274185513557456</v>
+        <v>0.06322866608374676</v>
       </c>
     </row>
     <row r="92">
@@ -1718,10 +1688,10 @@
         <v>42522</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1293964120370371</v>
+        <v>0.2173897849462366</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1301166347867292</v>
+        <v>0.1315058869791216</v>
       </c>
     </row>
     <row r="93">
@@ -1732,10 +1702,10 @@
         <v>42552</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2174539650537634</v>
+        <v>0.2263836878603709</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2038830035574042</v>
+        <v>0.1999447740313773</v>
       </c>
     </row>
     <row r="94">
@@ -1746,10 +1716,10 @@
         <v>42583</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2274513888888889</v>
+        <v>0.1654128472222222</v>
       </c>
       <c r="D94" t="n">
-        <v>0.229251990571861</v>
+        <v>0.2248756948673807</v>
       </c>
     </row>
     <row r="95">
@@ -1760,10 +1730,10 @@
         <v>42614</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1654128472222222</v>
+        <v>0.09852083333333334</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1974910039438191</v>
+        <v>0.196557369421608</v>
       </c>
     </row>
     <row r="96">
@@ -1774,10 +1744,10 @@
         <v>42644</v>
       </c>
       <c r="C96" t="n">
-        <v>0.09852083333333334</v>
+        <v>0.06216215277777778</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1399564699423683</v>
+        <v>0.1446731442902039</v>
       </c>
     </row>
     <row r="97">
@@ -1787,11 +1757,9 @@
       <c r="B97" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="C97" t="n">
-        <v>0.06216215277777778</v>
-      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>0.09660356426354093</v>
+        <v>0.1081069360862532</v>
       </c>
     </row>
     <row r="98">
@@ -1801,12 +1769,8 @@
       <c r="B98" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="C98" t="n">
-        <v>-0.05485920698924731</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.08049916711486307</v>
-      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -1815,12 +1779,8 @@
       <c r="B99" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="C99" t="n">
-        <v>-0.0274516177731027</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.07262785499400257</v>
-      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -1829,12 +1789,8 @@
       <c r="B100" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="C100" t="n">
-        <v>-0.1260174851190476</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.05007540769205596</v>
-      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -1843,12 +1799,8 @@
       <c r="B101" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="C101" t="n">
-        <v>-0.04984677419354839</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.01694974294796458</v>
-      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -1858,11 +1810,9 @@
         <v>42826</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.07285347222222223</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.004972951429943112</v>
-      </c>
+        <v>0.02392775537634409</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -1872,10 +1822,10 @@
         <v>42856</v>
       </c>
       <c r="C103" t="n">
-        <v>0.02392775537634409</v>
+        <v>0.04364131944444444</v>
       </c>
       <c r="D103" t="n">
-        <v>0.04189304852660292</v>
+        <v>0.05539343140635125</v>
       </c>
     </row>
     <row r="104">
@@ -1886,10 +1836,10 @@
         <v>42887</v>
       </c>
       <c r="C104" t="n">
-        <v>0.04364131944444444</v>
+        <v>0.2051043906810036</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1192678281777564</v>
+        <v>0.1236706523017253</v>
       </c>
     </row>
     <row r="105">
@@ -1900,10 +1850,10 @@
         <v>42917</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2051043906810036</v>
+        <v>0.206621079749104</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1930341969484325</v>
+        <v>0.1921095393539803</v>
       </c>
     </row>
     <row r="106">
@@ -1914,10 +1864,10 @@
         <v>42948</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2067548163082437</v>
+        <v>0.154696875</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2184031839628894</v>
+        <v>0.2170404601899845</v>
       </c>
     </row>
     <row r="107">
@@ -1928,10 +1878,10 @@
         <v>42979</v>
       </c>
       <c r="C107" t="n">
-        <v>0.154696875</v>
+        <v>0.09964740143369175</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1866421973348468</v>
+        <v>0.1887221347442112</v>
       </c>
     </row>
     <row r="108">
@@ -1942,10 +1892,10 @@
         <v>43009</v>
       </c>
       <c r="C108" t="n">
-        <v>0.09964740143369175</v>
+        <v>0.1103892512077295</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1291076633333967</v>
+        <v>0.136837909612807</v>
       </c>
     </row>
     <row r="109">
@@ -1956,10 +1906,10 @@
         <v>43040</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1103892512077295</v>
+        <v>0.02979939516129032</v>
       </c>
       <c r="D109" t="n">
-        <v>0.08575475765456969</v>
+        <v>0.100271701408857</v>
       </c>
     </row>
     <row r="110">
@@ -1970,10 +1920,10 @@
         <v>43070</v>
       </c>
       <c r="C110" t="n">
-        <v>0.02979939516129032</v>
+        <v>0.1221371324011876</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06965036050589149</v>
+        <v>0.09153254858444419</v>
       </c>
     </row>
     <row r="111">
@@ -1984,10 +1934,10 @@
         <v>43101</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1203769041218638</v>
+        <v>0.01324778172138421</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06177904838503097</v>
+        <v>0.09051671845206721</v>
       </c>
     </row>
     <row r="112">
@@ -1998,10 +1948,10 @@
         <v>43132</v>
       </c>
       <c r="C112" t="n">
-        <v>0.002781848473084885</v>
+        <v>0.1557140895278167</v>
       </c>
       <c r="D112" t="n">
-        <v>0.03922660108308398</v>
+        <v>0.07216491401874787</v>
       </c>
     </row>
     <row r="113">
@@ -2012,10 +1962,10 @@
         <v>43160</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1557140895278167</v>
+        <v>0.02241126893939394</v>
       </c>
       <c r="D113" t="n">
-        <v>0.006100936338992974</v>
+        <v>0.03833342650109327</v>
       </c>
     </row>
     <row r="114">
@@ -2026,10 +1976,10 @@
         <v>43191</v>
       </c>
       <c r="C114" t="n">
-        <v>0.02241126893939394</v>
+        <v>0.08837330389144905</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.005875855179028638</v>
+        <v>0.0201828498201536</v>
       </c>
     </row>
     <row r="115">
@@ -2040,10 +1990,10 @@
         <v>43221</v>
       </c>
       <c r="C115" t="n">
-        <v>0.08837330389144905</v>
+        <v>0.1212728009259259</v>
       </c>
       <c r="D115" t="n">
-        <v>0.03104424191763128</v>
+        <v>0.04755819672895429</v>
       </c>
     </row>
     <row r="116">
@@ -2054,10 +2004,10 @@
         <v>43252</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1212728009259259</v>
+        <v>0.2263641109552751</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1084190215687848</v>
+        <v>0.1158354176243291</v>
       </c>
     </row>
     <row r="117">
@@ -2068,10 +2018,10 @@
         <v>43282</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2272846102150538</v>
+        <v>0.2386554902992052</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1821853903394617</v>
+        <v>0.1842743046765841</v>
       </c>
     </row>
     <row r="118">
@@ -2082,10 +2032,10 @@
         <v>43313</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2397159498207885</v>
+        <v>0.1769795138888889</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2075543773539178</v>
+        <v>0.2092052255125882</v>
       </c>
     </row>
     <row r="119">
@@ -2096,10 +2046,10 @@
         <v>43344</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1771365740740741</v>
+        <v>0.1102106708742403</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1757933907258759</v>
+        <v>0.180886900066815</v>
       </c>
     </row>
     <row r="120">
@@ -2110,10 +2060,10 @@
         <v>43374</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1102106708742403</v>
+        <v>0.08910694444444443</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1182588567244251</v>
+        <v>0.1290026749354115</v>
       </c>
     </row>
     <row r="121">
@@ -2124,10 +2074,10 @@
         <v>43405</v>
       </c>
       <c r="C121" t="n">
-        <v>0.08910694444444443</v>
+        <v>0.1568724910394265</v>
       </c>
       <c r="D121" t="n">
-        <v>0.07490595104559809</v>
+        <v>0.09243646673146076</v>
       </c>
     </row>
     <row r="122">
@@ -2138,10 +2088,10 @@
         <v>43435</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1569063172043011</v>
+        <v>0.1381142477329075</v>
       </c>
       <c r="D122" t="n">
-        <v>0.05880155389691996</v>
+        <v>0.083697313907048</v>
       </c>
     </row>
     <row r="123">
@@ -2152,10 +2102,10 @@
         <v>43466</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1381142477329075</v>
+        <v>0.06279436739287284</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0509302417760592</v>
+        <v>0.08268148377467113</v>
       </c>
     </row>
     <row r="124">
@@ -2165,11 +2115,9 @@
       <c r="B124" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="C124" t="n">
-        <v>0.06254097065374239</v>
-      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>0.02837779447411279</v>
+        <v>0.06432967934135127</v>
       </c>
     </row>
     <row r="125">
@@ -2180,11 +2128,9 @@
         <v>43525</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.003470108695652174</v>
-      </c>
-      <c r="D125" t="n">
-        <v>-0.004747870269978235</v>
-      </c>
+        <v>0.03784039016371444</v>
+      </c>
+      <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2194,10 +2140,10 @@
         <v>43556</v>
       </c>
       <c r="C126" t="n">
-        <v>0.03491284722222222</v>
+        <v>0.01180286738351255</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.01672466178800029</v>
+        <v>0.01234761514275735</v>
       </c>
     </row>
     <row r="127">
@@ -2208,10 +2154,10 @@
         <v>43586</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01095855734767025</v>
+        <v>0.06294756944444445</v>
       </c>
       <c r="D127" t="n">
-        <v>0.02019543530865962</v>
+        <v>0.03972296205155808</v>
       </c>
     </row>
     <row r="128">
@@ -2222,10 +2168,10 @@
         <v>43617</v>
       </c>
       <c r="C128" t="n">
-        <v>0.06294756944444445</v>
+        <v>0.203615621945259</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0975702149598143</v>
+        <v>0.1080001829469328</v>
       </c>
     </row>
     <row r="129">
@@ -2236,10 +2182,10 @@
         <v>43647</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2048948252688172</v>
+        <v>0.2222501120071685</v>
       </c>
       <c r="D129" t="n">
-        <v>0.17133658373049</v>
+        <v>0.1764390699991886</v>
       </c>
     </row>
     <row r="130">
@@ -2250,10 +2196,10 @@
         <v>43678</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222430667562724</v>
+        <v>0.1597440972222222</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1967055707449462</v>
+        <v>0.201369990835192</v>
       </c>
     </row>
     <row r="131">
@@ -2264,10 +2210,10 @@
         <v>43709</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1597440972222222</v>
+        <v>0.1312362815568023</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1649445841169043</v>
+        <v>0.1730516653894195</v>
       </c>
     </row>
     <row r="132">
@@ -2278,10 +2224,10 @@
         <v>43739</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1312362815568023</v>
+        <v>0.1180527389277389</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1074100501154535</v>
+        <v>0.1211674402580153</v>
       </c>
     </row>
     <row r="133">
@@ -2291,11 +2237,9 @@
       <c r="B133" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="C133" t="n">
-        <v>0.1180527389277389</v>
-      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>0.06405714443662615</v>
+        <v>0.08460123205406457</v>
       </c>
     </row>
   </sheetData>
